--- a/documents/backlog-v1.xlsx
+++ b/documents/backlog-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vivian\Documents\Projeto Individual\stardew-valley\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCEF2048-2503-4431-A824-925B45BF41A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47BC4994-CAA1-4B7A-8FD2-1520320FA5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EBA81A82-E024-4BC8-9180-6AC6AA6EE44D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="BACKLOG" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BACKLOG!$A$2:$G$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BACKLOG!$A$2:$F$28</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -170,9 +170,6 @@
     <t>Em Andamento</t>
   </si>
   <si>
-    <t>Concluído</t>
-  </si>
-  <si>
     <t>Criar opção de comentários e curtidas na página fórum</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t>Desenvolver em HTML, CSS e Javascript a página de Quiz sobre o jogo Stardew Valley</t>
   </si>
   <si>
-    <t>Desenvolver página Quiz</t>
-  </si>
-  <si>
     <t>Criar protótipo página Quiz</t>
   </si>
   <si>
@@ -246,6 +240,12 @@
   </si>
   <si>
     <t>Criar Documentação Completa do Projeto</t>
+  </si>
+  <si>
+    <t>Desenvolver página Quiz Estática</t>
+  </si>
+  <si>
+    <t>Concluída</t>
   </si>
 </sst>
 </file>
@@ -332,61 +332,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -407,14 +357,14 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -422,9 +372,14 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -435,27 +390,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -470,62 +407,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -533,6 +487,85 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -877,10 +910,10 @@
     <tabColor theme="4" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,652 +923,671 @@
     <col min="3" max="3" width="41.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-    </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+    </row>
+    <row r="2" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="1">
         <v>8</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="12">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>13</v>
+      </c>
+      <c r="F4" s="12">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8</v>
+      </c>
+      <c r="F6" s="12">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>21</v>
+      </c>
+      <c r="F7" s="12">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>13</v>
+      </c>
+      <c r="F9" s="12">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>13</v>
+      </c>
+      <c r="F10" s="12">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E11" s="1">
         <v>13</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F11" s="12">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
+      <c r="F12" s="12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E13" s="1">
         <v>21</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F13" s="12">
         <v>1</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <v>13</v>
+      </c>
+      <c r="F14" s="12">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <v>13</v>
+      </c>
+      <c r="F15" s="12">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8</v>
+      </c>
+      <c r="F16" s="12">
+        <v>3</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1">
+        <v>13</v>
+      </c>
+      <c r="F17" s="12">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+      <c r="F18" s="12">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1">
+        <v>8</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1">
+        <v>13</v>
+      </c>
+      <c r="F20" s="12">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1">
+        <v>13</v>
+      </c>
+      <c r="F21" s="12">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="F22" s="12">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6">
-        <v>4</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="25" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1">
+        <v>21</v>
+      </c>
+      <c r="F23" s="12">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="F24" s="1">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6">
-        <v>8</v>
-      </c>
-      <c r="F8" s="6">
-        <v>3</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6">
-        <v>13</v>
-      </c>
-      <c r="F9" s="6">
-        <v>6</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6">
-        <v>8</v>
-      </c>
-      <c r="F10" s="6">
-        <v>2</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
-        <v>8</v>
-      </c>
-      <c r="F11" s="6">
-        <v>5</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6">
-        <v>8</v>
-      </c>
-      <c r="F12" s="6">
-        <v>7</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="6">
-        <v>8</v>
-      </c>
-      <c r="F13" s="6">
-        <v>11</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="6">
-        <v>21</v>
-      </c>
-      <c r="F14" s="6">
-        <v>10</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="6">
-        <v>8</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="6">
-        <v>13</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="6">
-        <v>5</v>
-      </c>
-      <c r="F17" s="6">
-        <v>3</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="6">
-        <v>13</v>
-      </c>
-      <c r="F18" s="6">
-        <v>6</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="6">
-        <v>13</v>
-      </c>
-      <c r="F19" s="6">
-        <v>8</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="6">
-        <v>13</v>
-      </c>
-      <c r="F20" s="6">
-        <v>9</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="6">
-        <v>13</v>
-      </c>
-      <c r="F21" s="6">
-        <v>7</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="6">
-        <v>8</v>
-      </c>
-      <c r="F22" s="6">
-        <v>5</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="6">
-        <v>21</v>
-      </c>
-      <c r="F23" s="6">
-        <v>4</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="6">
-        <v>5</v>
-      </c>
-      <c r="F24" s="6">
-        <v>2</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="25" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G28" xr:uid="{74A2642B-D400-46EA-964E-E05A5AEA6485}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G28">
-      <sortCondition descending="1" ref="G2:G28"/>
-    </sortState>
-  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:G1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="A Fazer">
-      <formula>NOT(ISERROR(SEARCH("A Fazer",G2)))</formula>
+  <conditionalFormatting sqref="C2:C1048576">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>"Importante"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Concluído">
-      <formula>NOT(ISERROR(SEARCH("Concluído",G2)))</formula>
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>"Essencial"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Em Andamento">
-      <formula>NOT(ISERROR(SEARCH("Em Andamento",G2)))</formula>
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>"Desejável"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Em Andamento"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"A Fazer"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Concluída"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="7" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="7" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8497f9ae-9c71-438c-b553-1e6fe8b1acb0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A729CFA7192B0F4AA60BE2DF65F4BC74" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee39750ad8b983f0f9ac05c6d33cdc04">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8497f9ae-9c71-438c-b553-1e6fe8b1acb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="575218e2c9ab049ab6ad7cca76d1d38a" ns3:_="">
     <xsd:import namespace="8497f9ae-9c71-438c-b553-1e6fe8b1acb0"/>
@@ -1729,24 +1781,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44DAEA0-DD6E-45E5-938F-CB046081399A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="8497f9ae-9c71-438c-b553-1e6fe8b1acb0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8497f9ae-9c71-438c-b553-1e6fe8b1acb0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE2E3D6-6D5D-436A-9712-0442BFABA7F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D062E9-275A-40A9-8059-A8AD790EE81A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1762,28 +1821,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE2E3D6-6D5D-436A-9712-0442BFABA7F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44DAEA0-DD6E-45E5-938F-CB046081399A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8497f9ae-9c71-438c-b553-1e6fe8b1acb0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>